--- a/biology/Zoologie/Hespérie_du_riz/Hespérie_du_riz.xlsx
+++ b/biology/Zoologie/Hespérie_du_riz/Hespérie_du_riz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_riz</t>
+          <t>Hespérie_du_riz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gegenes nostrodamus
 L’Hespérie du riz (Gegenes nostrodamus) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Hesperiinae et du genre Gegenes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_riz</t>
+          <t>Hespérie_du_riz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gegenes nostrodamus a été décrit par Johan Christian Fabricius en 1793 sous le nom d’Hesperia nostrodamus.
-Synonyme : Philoodus nostrodamus Rambur, 1840[1].
-Noms vernaculaires
-L'Hespérie du riz ou Nostradamus se nomme Mediterranean Skipper ou Dingy Swift en anglais et Veloz de las Rieras en espagnol[1].
+Synonyme : Philoodus nostrodamus Rambur, 1840.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_riz</t>
+          <t>Hespérie_du_riz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon d'une envergure de 26 mm à 28 mm au dessus marron et au revers beige grisé avec des soies costales longues et denses. Comme tous les Hesperiidae il porte ses ailes antérieures partiellement redressées quand il est posé[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du riz ou Nostradamus se nomme Mediterranean Skipper ou Dingy Swift en anglais et Veloz de las Rieras en espagnol.
 </t>
         </is>
       </c>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_riz</t>
+          <t>Hespérie_du_riz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie du riz vole en deux à trois génération d'avril à octobre[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Poaceae (graminées) : Aeluropus sp et Panicum sp[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon d'une envergure de 26 mm à 28 mm au dessus marron et au revers beige grisé avec des soies costales longues et denses. Comme tous les Hesperiidae il porte ses ailes antérieures partiellement redressées quand il est posé.
 </t>
         </is>
       </c>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_riz</t>
+          <t>Hespérie_du_riz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,15 +625,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du riz vole en deux à trois génération d'avril à octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_riz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_riz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Poaceae (graminées) : Aeluropus sp et Panicum sp,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_du_riz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_riz</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie du riz réside dans le nord de l'Afrique, Afrique du Nord et Égypte, dans le sud de l'Europe, au Moyen-Orient dans le Turkestan et en Inde[1],[2].
-En Europe l'Hespérie du riz se rencontre sur la côte méditerranéenne dans le sud de l'Espagne, à Majorque, en Sardaigne, en Sicile, à l'ile d'Elbe, sur la côte ouest de l'Italie, à Malte, dans le sud de la Croatie et de la Serbie, en Albanie, régions côtières  de la Grèce et en Crète[2].
-Biotope
-L'Hespérie du riz réside dans les milieux rocheux chauds et secs du littoral méditerranéen, en bordure de rivières[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du riz réside dans le nord de l'Afrique, Afrique du Nord et Égypte, dans le sud de l'Europe, au Moyen-Orient dans le Turkestan et en Inde,.
+En Europe l'Hespérie du riz se rencontre sur la côte méditerranéenne dans le sud de l'Espagne, à Majorque, en Sardaigne, en Sicile, à l'ile d'Elbe, sur la côte ouest de l'Italie, à Malte, dans le sud de la Croatie et de la Serbie, en Albanie, régions côtières  de la Grèce et en Crète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_du_riz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_riz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du riz réside dans les milieux rocheux chauds et secs du littoral méditerranéen, en bordure de rivières.
 </t>
         </is>
       </c>
